--- a/richat-climatique/backend/scraped_data/GEF_Mauritanie_Projects.xlsx
+++ b/richat-climatique/backend/scraped_data/GEF_Mauritanie_Projects.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>https://publicpartnershipdata.azureedge.net/gef/GEFProjectVersions/4ae2702f-bde6-ee11-904c-6045bd010b21_STAPReview.pdf | https://publicpartnershipdata.azureedge.net/gef/GEFProjectVersions/4ae2702f-bde6-ee11-904c-6045bd010b21_ReviewSheet_PIF.pdf | https://publicpartnershipdata.azureedge.net/gef/GEFProjectVersions/4ae2702f-bde6-ee11-904c-6045bd010b21_PIF.pdf</t>
+          <t>https://publicpartnershipdata.azureedge.net/gef/GEFProjectVersions/4ae2702f-bde6-ee11-904c-6045bd010b21_STAPReview.pdf | https://publicpartnershipdata.azureedge.net/gef/GEFProjectVersions/4ae2702f-bde6-ee11-904c-6045bd010b21_ReviewSheet_CEOEndorsement.pdf | https://publicpartnershipdata.azureedge.net/gef/GEFProjectVersions/4ae2702f-bde6-ee11-904c-6045bd010b21_CEOEndorsement.pdf | https://publicpartnershipdata.azureedge.net/gef/GEFProjectVersions/4ae2702f-bde6-ee11-904c-6045bd010b21_ReviewSheet_PIF.pdf | https://publicpartnershipdata.azureedge.net/gef/GEFProjectVersions/4ae2702f-bde6-ee11-904c-6045bd010b21_PIF.pdf</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -1372,7 +1372,11 @@
           <t>To enable the country to conduct a broad consultation process, including government ministries involved in national GEF policy and programming, to set priorities for GEF resource programming covering the 5th replenishment period.</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>USD 0</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -1658,7 +1662,11 @@
           <t>The main objective of the project is to define the prioritised capacities that need to be strengthened to protect the global environment. The specific objectives are: -Identify, confirm or examine the priority actions in the sectors of biodiversity, climatechange and desertification/ soil degradation respectively; -Examine the related capacities to be strengthened on the sectoral and intersectoral level; -re-align the measures taken by the countries with their national framework for environmental management and sustainable development.</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>USD 0</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="50" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -1696,7 +1704,11 @@
           <t>The objectives of NAPAs are: To serve as simplified and direct channels of communication for information relating to the urgent and immediate needs for adaptation in Mauritania; To facilitate capacity building for the preparation of initial national communications, and addressing urgent and immediate adaptation needs.</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>USD 0</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="50" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -1734,7 +1746,11 @@
           <t>The project is being implemented as an interim capacity-building activity between the Initial and the Second Communications. Hence it is intended to complement activities of the Phase 1 project, related to the Initial Communication, while at the same time forming basis for initiation of the Second National Communication to the UNFCCC.</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>USD 0</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="50" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -1814,7 +1830,11 @@
           <t>1.To obtain national consensus on mechanisms to raise the capacity of Mauritania to manage the use of biodiversity and ensure its conservation. 2.Expand on initial participation in the CHM through establishing an Internet site. 3.In accordance with the Decision V/19 of the Conference of the Parties, prepare a second national report for submission to the Secretariat CBD by the deadline May15, 2001.</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>USD 0</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="50" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -1852,7 +1872,11 @@
           <t>This project will assist the national Government to meet its obligations under the Convention on Biological Diversity.</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>USD 0</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="50" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -1932,7 +1956,11 @@
           <t>The objective of this project is to support the preparation of the initial national communication related to UNFCCC.</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>USD 0</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="50" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -2012,7 +2040,11 @@
           <t>The aim of the project is to assist the country with the ability to formulate and manage sectoral and cross-sectoral programmes to meet the objectives of the Convention on Biological Diversity through a cost effective approach within the context of national sustainable development efforts, and to report to the Convention on progress achieved in implementing agreed commitments.</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>USD 0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
